--- a/dubizzle_report.xlsx
+++ b/dubizzle_report.xlsx
@@ -478,28 +478,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>محافظه القاهره</t>
+          <t>محافظه الشرقيه</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>قسم بدر</t>
+          <t>مركز مشتول السوق</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12222.22222222222</v>
+        <v>188157.8947368421</v>
       </c>
       <c r="E2" t="n">
-        <v>50.92592592592593</v>
+        <v>783.9912280701755</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>وحدة سكنية</t>
+          <t>مطعم</t>
         </is>
       </c>
     </row>

--- a/dubizzle_report.xlsx
+++ b/dubizzle_report.xlsx
@@ -478,28 +478,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>محافظه الشرقيه</t>
+          <t>محافظه الاسكندريه</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>مركز مشتول السوق</t>
+          <t>قسم العطارين</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>188157.8947368421</v>
+        <v>17695.4732510288</v>
       </c>
       <c r="E2" t="n">
-        <v>783.9912280701755</v>
+        <v>73.73113854595336</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>مطعم</t>
+          <t>غرفة</t>
         </is>
       </c>
     </row>
